--- a/diabetes.xlsx
+++ b/diabetes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiros-h/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiros-h/Documents/GitHub/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C402D5-0A0F-9247-BAB0-E5F4CDD62339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC63A3B-4FDC-2047-BCAB-B94E2E4A51A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11440" yWindow="5400" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="9280" yWindow="6800" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,43 +35,54 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>AGE</t>
+    <t>age</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SEX</t>
+    <t>sex</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BMI</t>
+    <t>bmi</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BP</t>
+    <t>bp</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S1</t>
+    <t>s1</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S2</t>
+    <t>s2</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S3</t>
+    <t>s3</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S4</t>
+    <t>s4</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S5</t>
+    <t>s5</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S6</t>
+    <t>s6</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Y</t>
+    <t>target</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -456,7 +467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
